--- a/NC_기록.xlsx
+++ b/NC_기록.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,61 @@
           <t>SF</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -528,22 +583,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.248</v>
+        <v>0.25</v>
       </c>
       <c r="E2" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F2" t="n">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G2" t="n">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I2" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J2" t="n">
         <v>11</v>
@@ -555,16 +610,49 @@
         <v>9</v>
       </c>
       <c r="M2" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>30</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>8</v>
+      </c>
+      <c r="T2" t="n">
+        <v>28</v>
+      </c>
+      <c r="U2" t="n">
+        <v>9</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="3">
@@ -618,6 +706,39 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -674,6 +795,39 @@
       <c r="P4" t="n">
         <v>1</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>15</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -690,16 +844,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.127</v>
+        <v>0.123</v>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G5" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
@@ -727,6 +881,39 @@
       </c>
       <c r="P5" t="n">
         <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>8</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.383</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -780,6 +967,39 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -794,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -878,6 +1098,61 @@
           <t>SF</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -894,25 +1169,25 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.233</v>
+        <v>0.238</v>
       </c>
       <c r="E2" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G2" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="H2" t="n">
         <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -921,16 +1196,49 @@
         <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>20</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>45</v>
+      </c>
+      <c r="U2" t="n">
+        <v>7</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -948,25 +1256,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.232</v>
+        <v>0.238</v>
       </c>
       <c r="E3" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G3" t="n">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -975,16 +1283,49 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>15</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>25</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1002,19 +1343,19 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.228</v>
+        <v>0.226</v>
       </c>
       <c r="E4" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G4" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
         <v>21</v>
@@ -1039,6 +1380,39 @@
       </c>
       <c r="P4" t="n">
         <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>16</v>
+      </c>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -1047,7 +1421,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>서호철</t>
+          <t>김주원</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1056,43 +1430,76 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.224</v>
+        <v>0.225</v>
       </c>
       <c r="E5" t="n">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="F5" t="n">
-        <v>157</v>
+        <v>93</v>
       </c>
       <c r="G5" t="n">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="H5" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>31</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1101,7 +1508,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>김주원</t>
+          <t>서호철</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1110,43 +1517,76 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.215</v>
+        <v>0.224</v>
       </c>
       <c r="E6" t="n">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="F6" t="n">
-        <v>92</v>
+        <v>157</v>
       </c>
       <c r="G6" t="n">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I6" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>45</v>
+      </c>
+      <c r="N6" t="n">
+        <v>12</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>9</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>3</v>
       </c>
-      <c r="M6" t="n">
-        <v>30</v>
-      </c>
-      <c r="N6" t="n">
-        <v>9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
+      <c r="T6" t="n">
+        <v>32</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.333</v>
       </c>
     </row>
     <row r="7">
@@ -1202,6 +1642,39 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>11</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1218,22 +1691,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.196</v>
+        <v>0.207</v>
       </c>
       <c r="E8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G8" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -1242,18 +1715,51 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="O8" t="n">
         <v>2</v>
       </c>
       <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>17</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>31</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="AA8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1310,6 +1816,39 @@
       <c r="P9" t="n">
         <v>1</v>
       </c>
+      <c r="Q9" t="n">
+        <v>9</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>33</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1317,7 +1856,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>박석민</t>
+          <t>김수윤</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1326,42 +1865,75 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.148</v>
+        <v>0.143</v>
       </c>
       <c r="E10" t="n">
         <v>8</v>
       </c>
       <c r="F10" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G10" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>6</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>6</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AA10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1371,7 +1943,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>김수윤</t>
+          <t>박석민</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1380,42 +1952,75 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.143</v>
+        <v>0.138</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>6</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.493</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1470,6 +2075,39 @@
         <v>2</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>6</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1484,7 +2122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1568,6 +2206,61 @@
           <t>SF</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1622,6 +2315,39 @@
       <c r="P2" t="n">
         <v>3</v>
       </c>
+      <c r="Q2" t="n">
+        <v>18</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>26</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1638,19 +2364,19 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.316</v>
+        <v>0.313</v>
       </c>
       <c r="E3" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3" t="n">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G3" t="n">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H3" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" t="n">
         <v>90</v>
@@ -1671,10 +2397,43 @@
         <v>24</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>27</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>42</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.311</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1692,22 +2451,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.297</v>
+        <v>0.302</v>
       </c>
       <c r="E4" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" t="n">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G4" t="n">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I4" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J4" t="n">
         <v>19</v>
@@ -1716,19 +2475,52 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="N4" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>29</v>
+      </c>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>49</v>
+      </c>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.508</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1737,7 +2529,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>전민수</t>
+          <t>권희동</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1746,42 +2538,75 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.275</v>
+        <v>0.277</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F5" t="n">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="G5" t="n">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>28</v>
+      </c>
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>39</v>
+      </c>
+      <c r="N5" t="n">
         <v>11</v>
       </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>13</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2</v>
-      </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>16</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="AA5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1791,7 +2616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>권희동</t>
+          <t>전민수</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1800,43 +2625,76 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.258</v>
+        <v>0.275</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="G6" t="n">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>14</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -1857,16 +2715,16 @@
         <v>0.24</v>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F7" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G7" t="n">
         <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" t="n">
         <v>24</v>
@@ -1891,6 +2749,39 @@
       </c>
       <c r="P7" t="n">
         <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>13</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>32</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.646</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1908,22 +2799,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.225</v>
+        <v>0.232</v>
       </c>
       <c r="E8" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G8" t="n">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J8" t="n">
         <v>7</v>
@@ -1935,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N8" t="n">
         <v>8</v>
@@ -1945,6 +2836,39 @@
       </c>
       <c r="P8" t="n">
         <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>11</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>28</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2000,6 +2924,39 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2053,6 +3010,39 @@
       </c>
       <c r="P10" t="n">
         <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>7</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.167</v>
       </c>
     </row>
   </sheetData>
@@ -2066,7 +3056,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG24"/>
+  <dimension ref="A1:AQ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,6 +3225,56 @@
           <t>BK</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Wgs</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Wgr</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>GF</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>SVO</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>GO/AO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2242,7 +3282,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>이우석</t>
+          <t>루친스키</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2252,20 +3292,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>105 2/3</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -2273,34 +3313,32 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K2" t="n">
+        <v>0.545</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -2309,40 +3347,70 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
+        <v>421</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1519</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
         <v>5</v>
       </c>
-      <c r="Y2" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
+      <c r="AO2" t="n">
+        <v>101</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>91</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>1.11</v>
       </c>
     </row>
     <row r="3">
@@ -2351,7 +3419,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>구창모</t>
+          <t>신민혁</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2361,95 +3429,125 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>34 1/3</t>
+          <t>65 2/3</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.05</v>
+        <v>4.11</v>
       </c>
       <c r="F3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="L3" t="n">
+        <v>67</v>
+      </c>
+      <c r="M3" t="n">
         <v>6</v>
       </c>
-      <c r="G3" t="n">
+      <c r="N3" t="n">
+        <v>18</v>
+      </c>
+      <c r="O3" t="n">
+        <v>8</v>
+      </c>
+      <c r="P3" t="n">
+        <v>55</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>32</v>
+      </c>
+      <c r="R3" t="n">
+        <v>30</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>7</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>286</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1106</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="n">
         <v>4</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L3" t="n">
-        <v>23</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>10</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
         <v>5</v>
       </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>134</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>541</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
+      <c r="AO3" t="n">
+        <v>57</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.71</v>
       </c>
     </row>
     <row r="4">
@@ -2458,7 +3556,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>이용찬</t>
+          <t>이재학</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2468,53 +3566,53 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28 1/3</t>
+          <t>45 2/3</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.59</v>
+        <v>5.12</v>
       </c>
       <c r="F4" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P4" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q4" t="n">
         <v>30</v>
       </c>
-      <c r="Q4" t="n">
-        <v>6</v>
-      </c>
       <c r="R4" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="S4" t="n">
-        <v>0.99</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -2523,40 +3621,70 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>116</v>
+        <v>206</v>
       </c>
       <c r="Y4" t="n">
-        <v>450</v>
+        <v>841</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.213</v>
+        <v>0.214</v>
       </c>
       <c r="AA4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>42</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>56</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
@@ -2565,7 +3693,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>루친스키</t>
+          <t>송명기</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2575,17 +3703,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>98 2/3</t>
+          <t>54</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.46</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>5</v>
@@ -2597,31 +3725,31 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5</v>
+        <v>0.286</v>
       </c>
       <c r="L5" t="n">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="M5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="O5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P5" t="n">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="Q5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R5" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S5" t="n">
-        <v>0.96</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -2630,40 +3758,70 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>3</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>250</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1005</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="AA5" t="n">
         <v>11</v>
       </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>396</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1431</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.222</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>14</v>
-      </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>64</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.59</v>
       </c>
     </row>
     <row r="6">
@@ -2672,7 +3830,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>김진호</t>
+          <t>파슨스</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2682,50 +3840,50 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2.52</v>
+        <v>3.56</v>
       </c>
       <c r="F6" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0.333</v>
       </c>
       <c r="L6" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="Q6" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="R6" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="S6" t="n">
         <v>1.28</v>
@@ -2737,40 +3895,70 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="Y6" t="n">
-        <v>400</v>
+        <v>767</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.247</v>
+        <v>0.214</v>
       </c>
       <c r="AA6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC6" t="n">
         <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
       </c>
       <c r="AF6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
         <v>3</v>
       </c>
-      <c r="AG6" t="n">
-        <v>0</v>
+      <c r="AO6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -2779,7 +3967,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>한재승</t>
+          <t>김시훈</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2789,97 +3977,125 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6 2/3</t>
+          <t>51</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2.7</v>
+        <v>3.88</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.4</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N7" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
       </c>
       <c r="P7" t="n">
+        <v>46</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>27</v>
+      </c>
+      <c r="R7" t="n">
+        <v>22</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>228</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>912</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="AA7" t="n">
         <v>7</v>
       </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>33</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>162</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1</v>
-      </c>
       <c r="AB7" t="n">
         <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
         <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>53</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>47</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1.13</v>
       </c>
     </row>
     <row r="8">
@@ -2888,7 +4104,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>박동수</t>
+          <t>구창모</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2898,20 +4114,20 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8 2/3</t>
+          <t>34 1/3</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3.12</v>
+        <v>1.05</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2919,16 +4135,14 @@
       <c r="J8" t="n">
         <v>0</v>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K8" t="n">
+        <v>0.8</v>
       </c>
       <c r="L8" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>10</v>
@@ -2937,58 +4151,88 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>134</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>541</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AA8" t="n">
         <v>3</v>
       </c>
-      <c r="R8" t="n">
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
         <v>3</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>39</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>160</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0</v>
-      </c>
       <c r="AG8" t="n">
         <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -2997,7 +4241,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>원종현</t>
+          <t>김태경</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -3007,95 +4251,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>33 2/3</t>
+          <t>13 1/3</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.21</v>
+        <v>4.73</v>
       </c>
       <c r="F9" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L9" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="Q9" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>63</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>258</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
         <v>13</v>
       </c>
-      <c r="R9" t="n">
-        <v>12</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1</v>
-      </c>
-      <c r="X9" t="n">
-        <v>142</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>514</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.264</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>0</v>
+      <c r="AP9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3104,7 +4380,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>파슨스</t>
+          <t>이용준</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3114,20 +4390,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.56</v>
+        <v>3.86</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3135,32 +4411,34 @@
       <c r="J10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" t="n">
-        <v>0.333</v>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L10" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="Q10" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="R10" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="S10" t="n">
-        <v>1.28</v>
+        <v>1.57</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -3169,40 +4447,70 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>182</v>
+        <v>67</v>
       </c>
       <c r="Y10" t="n">
-        <v>767</v>
+        <v>278</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.214</v>
+        <v>0.276</v>
       </c>
       <c r="AA10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3211,7 +4519,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>이용준</t>
+          <t>심창민</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3221,97 +4529,125 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6 1/3</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.86</v>
+        <v>14.21</v>
       </c>
       <c r="F11" t="n">
+        <v>11</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" t="n">
         <v>6</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>16</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>6</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>13</v>
-      </c>
       <c r="Q11" t="n">
+        <v>10</v>
+      </c>
+      <c r="R11" t="n">
+        <v>10</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>158</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.346</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP11" t="n">
         <v>7</v>
       </c>
-      <c r="R11" t="n">
-        <v>6</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>67</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>278</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.276</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
+      <c r="AQ11" t="n">
+        <v>0.57</v>
       </c>
     </row>
     <row r="12">
@@ -3320,7 +4656,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>임정호</t>
+          <t>하준영</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3330,78 +4666,78 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2 1/3</t>
+          <t>15 1/3</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.86</v>
+        <v>5.87</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
+        <v>15</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>11</v>
+      </c>
+      <c r="R12" t="n">
+        <v>10</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>71</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>283</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="AA12" t="n">
         <v>4</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.364</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>1</v>
-      </c>
       <c r="AB12" t="n">
         <v>0</v>
       </c>
@@ -3415,10 +4751,40 @@
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -3427,7 +4793,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>김시훈</t>
+          <t>류진욱</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3437,94 +4803,124 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3.88</v>
+        <v>5.4</v>
       </c>
       <c r="F13" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
       <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L13" t="n">
+        <v>33</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>21</v>
+      </c>
+      <c r="O13" t="n">
         <v>3</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="P13" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>19</v>
+      </c>
+      <c r="R13" t="n">
+        <v>15</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>128</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>559</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
         <v>3</v>
       </c>
-      <c r="K13" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L13" t="n">
-        <v>49</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="n">
-        <v>29</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>46</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>27</v>
-      </c>
-      <c r="R13" t="n">
-        <v>22</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>228</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>912</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.254</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
       <c r="AG13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3534,7 +4930,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>신민혁</t>
+          <t>조민석</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3544,95 +4940,125 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>65 2/3</t>
+          <t>13 2/3</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.11</v>
+        <v>5.27</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>16</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9</v>
+      </c>
+      <c r="R14" t="n">
+        <v>8</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>66</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>271</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
         <v>5</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.286</v>
-      </c>
-      <c r="L14" t="n">
-        <v>67</v>
-      </c>
-      <c r="M14" t="n">
-        <v>6</v>
-      </c>
-      <c r="N14" t="n">
-        <v>18</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="AL14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP14" t="n">
         <v>8</v>
       </c>
-      <c r="P14" t="n">
-        <v>55</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>32</v>
-      </c>
-      <c r="R14" t="n">
-        <v>30</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>7</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>286</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>1106</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.262</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
+      <c r="AQ14" t="n">
+        <v>2.38</v>
       </c>
     </row>
     <row r="15">
@@ -3641,7 +5067,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>김건태</t>
+          <t>김영규</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3651,97 +5077,125 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>18 1/3</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4.42</v>
+        <v>5.18</v>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>38</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>19</v>
+      </c>
+      <c r="R15" t="n">
+        <v>19</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>4</v>
+      </c>
+      <c r="X15" t="n">
+        <v>140</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>523</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AP15" t="n">
         <v>22</v>
       </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" t="n">
-        <v>12</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>15</v>
-      </c>
-      <c r="R15" t="n">
-        <v>9</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>86</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>342</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.314</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>0</v>
+      <c r="AQ15" t="n">
+        <v>1.64</v>
       </c>
     </row>
     <row r="16">
@@ -3750,7 +5204,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>김태경</t>
+          <t>이우석</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3760,14 +5214,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>13 1/3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4.73</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -3787,52 +5241,52 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
         <v>5</v>
       </c>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>7</v>
-      </c>
-      <c r="R16" t="n">
-        <v>7</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>63</v>
-      </c>
       <c r="Y16" t="n">
-        <v>258</v>
+        <v>23</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.268</v>
+        <v>0.25</v>
       </c>
       <c r="AA16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
         <v>0</v>
@@ -3847,10 +5301,42 @@
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -3859,7 +5345,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>송명기</t>
+          <t>김건태</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3869,20 +5355,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>18 1/3</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5</v>
+        <v>4.42</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -3890,32 +5376,34 @@
       <c r="J17" t="n">
         <v>0</v>
       </c>
-      <c r="K17" t="n">
-        <v>0.286</v>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L17" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="M17" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="O17" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="Q17" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="R17" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="S17" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -3924,40 +5412,70 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>250</v>
+        <v>86</v>
       </c>
       <c r="Y17" t="n">
-        <v>1005</v>
+        <v>342</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.279</v>
+        <v>0.314</v>
       </c>
       <c r="AA17" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="18">
@@ -3966,7 +5484,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>이재학</t>
+          <t>임정호</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3976,77 +5494,77 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>45 2/3</t>
+          <t>2 1/3</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5.12</v>
+        <v>3.86</v>
       </c>
       <c r="F18" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
         <v>11</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="Y18" t="n">
         <v>36</v>
       </c>
-      <c r="M18" t="n">
-        <v>2</v>
-      </c>
-      <c r="N18" t="n">
-        <v>28</v>
-      </c>
-      <c r="O18" t="n">
-        <v>7</v>
-      </c>
-      <c r="P18" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>30</v>
-      </c>
-      <c r="R18" t="n">
-        <v>26</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>3</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>206</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>841</v>
-      </c>
       <c r="Z18" t="n">
-        <v>0.214</v>
+        <v>0.364</v>
       </c>
       <c r="AA18" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AB18" t="n">
         <v>0</v>
@@ -4055,16 +5573,46 @@
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE18" t="n">
         <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
         <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -4073,7 +5621,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>김영규</t>
+          <t>박동수</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4083,95 +5631,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>10 1/3</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5.18</v>
+        <v>3.48</v>
       </c>
       <c r="F19" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
         <v>6</v>
       </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>5</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>38</v>
-      </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>13</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>48</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>201</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
         <v>3</v>
       </c>
-      <c r="N19" t="n">
-        <v>9</v>
-      </c>
-      <c r="O19" t="n">
-        <v>3</v>
-      </c>
-      <c r="P19" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>19</v>
-      </c>
-      <c r="R19" t="n">
-        <v>19</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>4</v>
-      </c>
-      <c r="X19" t="n">
-        <v>140</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>523</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>0.306</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>0</v>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="20">
@@ -4180,7 +5760,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>조민석</t>
+          <t>원종현</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4190,95 +5770,125 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13 2/3</t>
+          <t>33 2/3</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.27</v>
+        <v>3.21</v>
       </c>
       <c r="F20" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
+        <v>9</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>13</v>
+      </c>
+      <c r="R20" t="n">
+        <v>12</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>142</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>514</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK20" t="n">
         <v>10</v>
       </c>
-      <c r="O20" t="n">
-        <v>2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>9</v>
-      </c>
-      <c r="R20" t="n">
-        <v>8</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>66</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>271</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>0.314</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>0</v>
+      <c r="AL20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="21">
@@ -4287,7 +5897,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>류진욱</t>
+          <t>한재승</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4297,95 +5907,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>24 2/3</t>
+          <t>6 2/3</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5.47</v>
+        <v>2.7</v>
       </c>
       <c r="F21" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.5</v>
+        <v>2</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L21" t="n">
+        <v>5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>33</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>21</v>
-      </c>
-      <c r="O21" t="n">
-        <v>3</v>
-      </c>
-      <c r="P21" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>19</v>
-      </c>
-      <c r="R21" t="n">
-        <v>15</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>127</v>
-      </c>
       <c r="Y21" t="n">
-        <v>556</v>
+        <v>162</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.333</v>
+        <v>0.217</v>
       </c>
       <c r="AA21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP21" t="n">
         <v>5</v>
       </c>
-      <c r="AB21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1</v>
+      <c r="AQ21" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="22">
@@ -4394,7 +6036,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>하준영</t>
+          <t>김진호</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4404,53 +6046,53 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>15 1/3</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5.87</v>
+        <v>2.52</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>20</v>
       </c>
       <c r="Q22" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="R22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S22" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -4465,34 +6107,64 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="Y22" t="n">
-        <v>283</v>
+        <v>400</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.238</v>
+        <v>0.247</v>
       </c>
       <c r="AA22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22" t="n">
         <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row r="23">
@@ -4501,7 +6173,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>심창민</t>
+          <t>이용찬</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4511,95 +6183,125 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6 1/3</t>
+          <t>28 1/3</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>14.21</v>
+        <v>1.59</v>
       </c>
       <c r="F23" t="n">
+        <v>27</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>9</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>23</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>6</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2</v>
+      </c>
+      <c r="X23" t="n">
+        <v>116</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>450</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL23" t="n">
         <v>11</v>
       </c>
-      <c r="G23" t="n">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="L23" t="n">
-        <v>9</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>7</v>
-      </c>
-      <c r="O23" t="n">
-        <v>3</v>
-      </c>
-      <c r="P23" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>10</v>
-      </c>
-      <c r="R23" t="n">
-        <v>10</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>158</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0.346</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
+      <c r="AM23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1.15</v>
       </c>
     </row>
     <row r="24">
@@ -4709,6 +6411,36 @@
       </c>
       <c r="AG24" t="n">
         <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>3.33</v>
       </c>
     </row>
   </sheetData>

--- a/NC_기록.xlsx
+++ b/NC_기록.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="투수" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="포수" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="내야수" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="외야수" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="투수" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +428,2721 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:AA6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>선수명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>포지션</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TB</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RBI</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>양의지</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="E2" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2" t="n">
+        <v>284</v>
+      </c>
+      <c r="G2" t="n">
+        <v>234</v>
+      </c>
+      <c r="H2" t="n">
+        <v>31</v>
+      </c>
+      <c r="I2" t="n">
+        <v>59</v>
+      </c>
+      <c r="J2" t="n">
+        <v>13</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9</v>
+      </c>
+      <c r="M2" t="n">
+        <v>99</v>
+      </c>
+      <c r="N2" t="n">
+        <v>42</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>36</v>
+      </c>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>9</v>
+      </c>
+      <c r="T2" t="n">
+        <v>29</v>
+      </c>
+      <c r="U2" t="n">
+        <v>10</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.789</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>이재용</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>김응민</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="E4" t="n">
+        <v>31</v>
+      </c>
+      <c r="F4" t="n">
+        <v>72</v>
+      </c>
+      <c r="G4" t="n">
+        <v>64</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>9</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>박대온</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18</v>
+      </c>
+      <c r="F5" t="n">
+        <v>54</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>10</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>15</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>정범모</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>포수</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>선수명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>포지션</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TB</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RBI</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>박민우</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E2" t="n">
+        <v>52</v>
+      </c>
+      <c r="F2" t="n">
+        <v>230</v>
+      </c>
+      <c r="G2" t="n">
+        <v>204</v>
+      </c>
+      <c r="H2" t="n">
+        <v>24</v>
+      </c>
+      <c r="I2" t="n">
+        <v>51</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>72</v>
+      </c>
+      <c r="N2" t="n">
+        <v>21</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>18</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>29</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.678</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>노진혁</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="E3" t="n">
+        <v>55</v>
+      </c>
+      <c r="F3" t="n">
+        <v>208</v>
+      </c>
+      <c r="G3" t="n">
+        <v>181</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" t="n">
+        <v>44</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>68</v>
+      </c>
+      <c r="N3" t="n">
+        <v>28</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>25</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>52</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>도태훈</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="E4" t="n">
+        <v>52</v>
+      </c>
+      <c r="F4" t="n">
+        <v>113</v>
+      </c>
+      <c r="G4" t="n">
+        <v>97</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>33</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>17</v>
+      </c>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.614</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>김주원</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>94</v>
+      </c>
+      <c r="G5" t="n">
+        <v>81</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>33</v>
+      </c>
+      <c r="N5" t="n">
+        <v>11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>8</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>31</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.407</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.667</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>박준영</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="E6" t="n">
+        <v>43</v>
+      </c>
+      <c r="F6" t="n">
+        <v>165</v>
+      </c>
+      <c r="G6" t="n">
+        <v>142</v>
+      </c>
+      <c r="H6" t="n">
+        <v>16</v>
+      </c>
+      <c r="I6" t="n">
+        <v>31</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>50</v>
+      </c>
+      <c r="N6" t="n">
+        <v>16</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>20</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>34</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.352</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>서호철</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="E7" t="n">
+        <v>60</v>
+      </c>
+      <c r="F7" t="n">
+        <v>163</v>
+      </c>
+      <c r="G7" t="n">
+        <v>149</v>
+      </c>
+      <c r="H7" t="n">
+        <v>22</v>
+      </c>
+      <c r="I7" t="n">
+        <v>32</v>
+      </c>
+      <c r="J7" t="n">
+        <v>7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>45</v>
+      </c>
+      <c r="N7" t="n">
+        <v>12</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>9</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>35</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>윤형준</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.209</v>
+      </c>
+      <c r="E8" t="n">
+        <v>19</v>
+      </c>
+      <c r="F8" t="n">
+        <v>44</v>
+      </c>
+      <c r="G8" t="n">
+        <v>43</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>10</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>11</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>오영수</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="E9" t="n">
+        <v>41</v>
+      </c>
+      <c r="F9" t="n">
+        <v>125</v>
+      </c>
+      <c r="G9" t="n">
+        <v>114</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>21</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>30</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>9</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>34</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>박석민</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="E10" t="n">
+        <v>14</v>
+      </c>
+      <c r="F10" t="n">
+        <v>56</v>
+      </c>
+      <c r="G10" t="n">
+        <v>45</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>9</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>7</v>
+      </c>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>김수윤</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>15</v>
+      </c>
+      <c r="G11" t="n">
+        <v>14</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>6</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>6</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>김한별</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>내야수</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="E12" t="n">
+        <v>17</v>
+      </c>
+      <c r="F12" t="n">
+        <v>20</v>
+      </c>
+      <c r="G12" t="n">
+        <v>18</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>6</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>선수명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>포지션</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AVG</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AB</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2B</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>3B</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>HR</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TB</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>RBI</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>박건우</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.331</v>
+      </c>
+      <c r="E2" t="n">
+        <v>49</v>
+      </c>
+      <c r="F2" t="n">
+        <v>194</v>
+      </c>
+      <c r="G2" t="n">
+        <v>169</v>
+      </c>
+      <c r="H2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I2" t="n">
+        <v>56</v>
+      </c>
+      <c r="J2" t="n">
+        <v>10</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>75</v>
+      </c>
+      <c r="N2" t="n">
+        <v>30</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>18</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="n">
+        <v>26</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>마티니</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="E3" t="n">
+        <v>79</v>
+      </c>
+      <c r="F3" t="n">
+        <v>326</v>
+      </c>
+      <c r="G3" t="n">
+        <v>283</v>
+      </c>
+      <c r="H3" t="n">
+        <v>32</v>
+      </c>
+      <c r="I3" t="n">
+        <v>90</v>
+      </c>
+      <c r="J3" t="n">
+        <v>20</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>11</v>
+      </c>
+      <c r="M3" t="n">
+        <v>145</v>
+      </c>
+      <c r="N3" t="n">
+        <v>52</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>31</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>6</v>
+      </c>
+      <c r="T3" t="n">
+        <v>52</v>
+      </c>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>손아섭</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>80</v>
+      </c>
+      <c r="F4" t="n">
+        <v>355</v>
+      </c>
+      <c r="G4" t="n">
+        <v>317</v>
+      </c>
+      <c r="H4" t="n">
+        <v>37</v>
+      </c>
+      <c r="I4" t="n">
+        <v>95</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>133</v>
+      </c>
+      <c r="N4" t="n">
+        <v>24</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>30</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>47</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.288</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>전민수</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>41</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>14</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>권희동</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="E6" t="n">
+        <v>38</v>
+      </c>
+      <c r="F6" t="n">
+        <v>142</v>
+      </c>
+      <c r="G6" t="n">
+        <v>126</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>32</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>46</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>10</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="n">
+        <v>23</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>김기환</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="E7" t="n">
+        <v>58</v>
+      </c>
+      <c r="F7" t="n">
+        <v>122</v>
+      </c>
+      <c r="G7" t="n">
+        <v>104</v>
+      </c>
+      <c r="H7" t="n">
+        <v>23</v>
+      </c>
+      <c r="I7" t="n">
+        <v>24</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>31</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>13</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>33</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.298</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>이명기</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="E8" t="n">
+        <v>46</v>
+      </c>
+      <c r="F8" t="n">
+        <v>181</v>
+      </c>
+      <c r="G8" t="n">
+        <v>162</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
+        <v>37</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>47</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>12</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>34</v>
+      </c>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>최승민</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="E9" t="n">
+        <v>32</v>
+      </c>
+      <c r="F9" t="n">
+        <v>27</v>
+      </c>
+      <c r="G9" t="n">
+        <v>27</v>
+      </c>
+      <c r="H9" t="n">
+        <v>15</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>6</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>7</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>천재환</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>7</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>4</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>정진기</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>외야수</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18</v>
+      </c>
+      <c r="G11" t="n">
+        <v>17</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:AQ24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -661,20 +3379,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>105 2/3</t>
+          <t>111 2/3</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
         <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -683,31 +3401,31 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.545</v>
+        <v>0.5</v>
       </c>
       <c r="L2" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="M2" t="n">
         <v>7</v>
       </c>
       <c r="N2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>5</v>
       </c>
       <c r="P2" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Q2" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R2" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,28 +3434,28 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="Y2" t="n">
-        <v>1519</v>
+        <v>1616</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.216</v>
+        <v>0.221</v>
       </c>
       <c r="AA2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
@@ -752,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
         <v>6</v>
@@ -773,13 +3491,13 @@
         <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AP2" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="3">
@@ -798,20 +3516,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>58 1/3</t>
+          <t>61 1/3</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4.94</v>
+        <v>5.28</v>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -820,31 +3538,31 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.286</v>
+        <v>0.25</v>
       </c>
       <c r="L3" t="n">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="M3" t="n">
         <v>7</v>
       </c>
       <c r="N3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q3" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="R3" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="S3" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -859,16 +3577,16 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="Y3" t="n">
-        <v>1096</v>
+        <v>1186</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.278</v>
+        <v>0.291</v>
       </c>
       <c r="AA3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB3" t="n">
         <v>2</v>
@@ -883,13 +3601,13 @@
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>2</v>
@@ -910,13 +3628,13 @@
         <v>3</v>
       </c>
       <c r="AO3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AP3" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="4">
@@ -935,14 +3653,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>65 2/3</t>
+          <t>70 2/3</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.11</v>
+        <v>4.08</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -960,10 +3678,10 @@
         <v>0.286</v>
       </c>
       <c r="L4" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
         <v>18</v>
@@ -972,13 +3690,13 @@
         <v>8</v>
       </c>
       <c r="P4" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="Q4" t="n">
+        <v>34</v>
+      </c>
+      <c r="R4" t="n">
         <v>32</v>
-      </c>
-      <c r="R4" t="n">
-        <v>30</v>
       </c>
       <c r="S4" t="n">
         <v>1.29</v>
@@ -996,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="Y4" t="n">
-        <v>1106</v>
+        <v>1191</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.262</v>
+        <v>0.264</v>
       </c>
       <c r="AA4" t="n">
         <v>18</v>
@@ -1023,10 +3741,10 @@
         <v>4</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
         <v>2</v>
@@ -1047,13 +3765,13 @@
         <v>5</v>
       </c>
       <c r="AO4" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AP4" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
@@ -1072,14 +3790,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>45 2/3</t>
+          <t>51 1/3</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5.12</v>
+        <v>5.26</v>
       </c>
       <c r="F5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1097,28 +3815,28 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O5" t="n">
         <v>7</v>
       </c>
       <c r="P5" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q5" t="n">
+        <v>34</v>
+      </c>
+      <c r="R5" t="n">
         <v>30</v>
       </c>
-      <c r="R5" t="n">
-        <v>26</v>
-      </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1133,25 +3851,25 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="Y5" t="n">
-        <v>841</v>
+        <v>941</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.214</v>
+        <v>0.221</v>
       </c>
       <c r="AA5" t="n">
         <v>7</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -1163,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -1184,13 +3902,13 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AP5" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="6">
@@ -1336,7 +4054,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>김시훈</t>
+          <t>구창모</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1346,77 +4064,77 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>54 1/3</t>
+          <t>45 2/3</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3.64</v>
+        <v>0.99</v>
       </c>
       <c r="F7" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="L7" t="n">
+        <v>31</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>14</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>6</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>180</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>732</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="AA7" t="n">
         <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>50</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="n">
-        <v>29</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>48</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>27</v>
-      </c>
-      <c r="R7" t="n">
-        <v>22</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>238</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>951</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>7</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1425,46 +4143,46 @@
         <v>3</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AG7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AO7" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AP7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="8">
@@ -1473,7 +4191,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>구창모</t>
+          <t>김시훈</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1483,53 +4201,53 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>40 1/3</t>
+          <t>56</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.89</v>
+        <v>4.18</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.8</v>
+        <v>0.333</v>
       </c>
       <c r="L8" t="n">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="R8" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="S8" t="n">
-        <v>0.92</v>
+        <v>1.55</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1538,22 +4256,22 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>156</v>
+        <v>251</v>
       </c>
       <c r="Y8" t="n">
-        <v>634</v>
+        <v>1006</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.19</v>
+        <v>0.263</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -1562,46 +4280,46 @@
         <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8" t="n">
         <v>7</v>
       </c>
       <c r="AI8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AM8" t="n">
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="AP8" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="9">
@@ -1888,7 +4606,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>이우석</t>
+          <t>김영규</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1898,55 +4616,53 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>36 1/3</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>4.71</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.143</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>1.35</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1958,34 +4674,34 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X11" t="n">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="Y11" t="n">
-        <v>23</v>
+        <v>578</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.25</v>
+        <v>0.289</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -1997,30 +4713,28 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="AP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="12">
@@ -2176,14 +4890,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17 1/3</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5.63</v>
+        <v>6.23</v>
       </c>
       <c r="F13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -2201,28 +4915,28 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O13" t="n">
         <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S13" t="n">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -2237,13 +4951,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="Y13" t="n">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.231</v>
+        <v>0.25</v>
       </c>
       <c r="AA13" t="n">
         <v>4</v>
@@ -2276,7 +4990,7 @@
         <v>2</v>
       </c>
       <c r="AK13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL13" t="n">
         <v>4</v>
@@ -2288,13 +5002,13 @@
         <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP13" t="n">
         <v>15</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2313,14 +5027,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>27 2/3</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.4</v>
+        <v>6.18</v>
       </c>
       <c r="F14" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -2338,28 +5052,28 @@
         <v>0.5</v>
       </c>
       <c r="L14" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O14" t="n">
         <v>3</v>
       </c>
       <c r="P14" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q14" t="n">
         <v>23</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>19</v>
       </c>
-      <c r="R14" t="n">
-        <v>15</v>
-      </c>
       <c r="S14" t="n">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -2374,16 +5088,16 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="n">
-        <v>559</v>
+        <v>613</v>
       </c>
       <c r="Z14" t="n">
         <v>0.33</v>
       </c>
       <c r="AA14" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB14" t="n">
         <v>1</v>
@@ -2416,7 +5130,7 @@
         <v>11</v>
       </c>
       <c r="AL14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
@@ -2425,13 +5139,13 @@
         <v>2</v>
       </c>
       <c r="AO14" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AP14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="15">
@@ -2577,7 +5291,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>김영규</t>
+          <t>이우석</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2587,92 +5301,94 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5.03</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
         <v>5</v>
       </c>
-      <c r="K16" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="L16" t="n">
-        <v>38</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9</v>
-      </c>
-      <c r="O16" t="n">
-        <v>3</v>
-      </c>
-      <c r="P16" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>19</v>
-      </c>
-      <c r="R16" t="n">
-        <v>19</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>4</v>
-      </c>
-      <c r="X16" t="n">
-        <v>143</v>
-      </c>
       <c r="Y16" t="n">
-        <v>536</v>
+        <v>23</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.299</v>
+        <v>0.25</v>
       </c>
       <c r="AA16" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
@@ -2684,28 +5400,30 @@
         <v>0</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AL16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AM16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO16" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="AP16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>1.54</v>
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2714,7 +5432,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>임정호</t>
+          <t>김건태</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2724,20 +5442,20 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2 1/3</t>
+          <t>18 1/3</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3.86</v>
+        <v>4.42</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2745,32 +5463,34 @@
       <c r="J17" t="n">
         <v>0</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S17" t="n">
-        <v>1.71</v>
+        <v>1.85</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -2785,31 +5505,31 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="Y17" t="n">
-        <v>36</v>
+        <v>342</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.364</v>
+        <v>0.314</v>
       </c>
       <c r="AA17" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="n">
         <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG17" t="n">
         <v>0</v>
@@ -2824,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL17" t="n">
         <v>0</v>
@@ -2833,16 +5553,16 @@
         <v>0</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO17" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>5</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="18">
@@ -2851,7 +5571,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>김건태</t>
+          <t>박동수</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2861,14 +5581,14 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>18 1/3</t>
+          <t>12 1/3</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.42</v>
+        <v>4.38</v>
       </c>
       <c r="F18" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2888,28 +5608,28 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
+        <v>15</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
         <v>12</v>
       </c>
-      <c r="O18" t="n">
-        <v>2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>16</v>
-      </c>
       <c r="Q18" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="R18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S18" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -2924,31 +5644,31 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="Y18" t="n">
-        <v>342</v>
+        <v>250</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.314</v>
+        <v>0.19</v>
       </c>
       <c r="AA18" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AB18" t="n">
         <v>0</v>
       </c>
       <c r="AC18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD18" t="n">
         <v>0</v>
       </c>
       <c r="AE18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
         <v>0</v>
@@ -2963,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="AK18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL18" t="n">
         <v>0</v>
@@ -2975,13 +5695,13 @@
         <v>2</v>
       </c>
       <c r="AO18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.39</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -2990,7 +5710,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>박동수</t>
+          <t>임정호</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -3000,20 +5720,20 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>10 1/3</t>
+          <t>2 1/3</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3.48</v>
+        <v>3.86</v>
       </c>
       <c r="F19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -3021,34 +5741,32 @@
       <c r="J19" t="n">
         <v>0</v>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K19" t="n">
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -3063,13 +5781,13 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>201</v>
+        <v>36</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.176</v>
+        <v>0.364</v>
       </c>
       <c r="AA19" t="n">
         <v>1</v>
@@ -3102,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
         <v>0</v>
@@ -3111,16 +5829,16 @@
         <v>0</v>
       </c>
       <c r="AN19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AP19" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -3139,17 +5857,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>34 2/3</t>
+          <t>37 1/3</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.12</v>
+        <v>2.89</v>
       </c>
       <c r="F20" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -3164,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
@@ -3176,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q20" t="n">
         <v>13</v>
@@ -3185,7 +5903,7 @@
         <v>12</v>
       </c>
       <c r="S20" t="n">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -3200,13 +5918,13 @@
         <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Y20" t="n">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.258</v>
+        <v>0.248</v>
       </c>
       <c r="AA20" t="n">
         <v>6</v>
@@ -3236,10 +5954,10 @@
         <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>7</v>
@@ -3251,13 +5969,13 @@
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AP20" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="21">
@@ -3266,7 +5984,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>한재승</t>
+          <t>김진호</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -3276,55 +5994,53 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>6 2/3</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>2.7</v>
+        <v>2.89</v>
       </c>
       <c r="F21" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
+        <v>12</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>10</v>
+      </c>
+      <c r="R21" t="n">
         <v>9</v>
       </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2</v>
-      </c>
       <c r="S21" t="n">
-        <v>2.1</v>
+        <v>1.46</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -3339,31 +6055,31 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>33</v>
+        <v>121</v>
       </c>
       <c r="Y21" t="n">
-        <v>162</v>
+        <v>471</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.217</v>
+        <v>0.274</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
@@ -3375,10 +6091,10 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -3387,16 +6103,16 @@
         <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO21" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="AP21" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="22">
@@ -3405,7 +6121,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>김진호</t>
+          <t>한재승</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3415,53 +6131,55 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>25 2/3</t>
+          <t>6 2/3</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="F22" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L22" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="Q22" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>1.32</v>
+        <v>2.1</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -3476,31 +6194,31 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="Y22" t="n">
-        <v>416</v>
+        <v>162</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.25</v>
+        <v>0.217</v>
       </c>
       <c r="AA22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
@@ -3512,10 +6230,10 @@
         <v>0</v>
       </c>
       <c r="AJ22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL22" t="n">
         <v>2</v>
@@ -3524,16 +6242,16 @@
         <v>0</v>
       </c>
       <c r="AN22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="AP22" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="23">
@@ -3552,14 +6270,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>30 1/3</t>
+          <t>31 1/3</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="F23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -3568,7 +6286,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -3577,19 +6295,19 @@
         <v>0.5</v>
       </c>
       <c r="L23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O23" t="n">
         <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q23" t="n">
         <v>7</v>
@@ -3598,7 +6316,7 @@
         <v>5</v>
       </c>
       <c r="S23" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -3613,13 +6331,13 @@
         <v>2</v>
       </c>
       <c r="X23" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Y23" t="n">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.227</v>
+        <v>0.23</v>
       </c>
       <c r="AA23" t="n">
         <v>2</v>
@@ -3628,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -3652,10 +6370,10 @@
         <v>2</v>
       </c>
       <c r="AK23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
@@ -3664,13 +6382,13 @@
         <v>1</v>
       </c>
       <c r="AO23" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AP23" t="n">
         <v>28</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="24">
